--- a/medicine/Enfance/Alyson_Noël/Alyson_Noël.xlsx
+++ b/medicine/Enfance/Alyson_Noël/Alyson_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alyson_No%C3%ABl</t>
+          <t>Alyson_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alyson Noël, née le 3 décembre 1965 à Laguna Beach en Californie, est une écrivaine américaine. Elle est l'auteur de la saga littéraire Éternels.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alyson_No%C3%ABl</t>
+          <t>Alyson_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alyson Noël a grandi dans le comté californien d'Orange, où elle a fréquenté l'école élémentaire Richard Nixon pendant deux ans[1]. Elle a vécu sur l'île grecque de Myconos à la sortie du lycée, puis a déménagé à New York dans le quartier de Manhattan pour exercer le métier d'hôtesse de l'air chez Delta Air Lines, une grande compagnie aérienne[2]. Elle vit aujourd'hui à Laguna Beach, en Californie. Elle a exercé différentes professions avant de se consacrer à la littérature : babysitter, vendeuse dans un grand magasin, responsable administratif, bijoutière, peintre sur t-shirts, hôtesse d'accueil[3]... Elle passe la plupart de son temps libre à voyager pour s'évader de son cadre de vie urbain.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alyson Noël a grandi dans le comté californien d'Orange, où elle a fréquenté l'école élémentaire Richard Nixon pendant deux ans. Elle a vécu sur l'île grecque de Myconos à la sortie du lycée, puis a déménagé à New York dans le quartier de Manhattan pour exercer le métier d'hôtesse de l'air chez Delta Air Lines, une grande compagnie aérienne. Elle vit aujourd'hui à Laguna Beach, en Californie. Elle a exercé différentes professions avant de se consacrer à la littérature : babysitter, vendeuse dans un grand magasin, responsable administratif, bijoutière, peintre sur t-shirts, hôtesse d'accueil... Elle passe la plupart de son temps libre à voyager pour s'évader de son cadre de vie urbain.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alyson_No%C3%ABl</t>
+          <t>Alyson_Noël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la lecture du livre Dieu, tu es là ? C'est moi, Margaret de Judy Blume, qui lui a insufflé l'envie d'écrire. Son premier roman, Faking 19, explore le mode de vie des adolescents contemporains.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alyson_No%C3%ABl</t>
+          <t>Alyson_Noël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,31 +591,206 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Éternels
-Evermore, Michel Lafon, 2009 ((en) Evermore, 2009)
+          <t>Série Éternels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Evermore, Michel Lafon, 2009 ((en) Evermore, 2009)
 Lune bleue, Michel Lafon, 2010 ((en) Blue Moon, 2009)
 Le Pays des ombres, Michel Lafon, 2010 ((en) Shadowland, 2009)
 La Flamme des ténèbres, Michel Lafon, 2011 ((en) Dark Flame, 2010)
 Une étoile dans la nuit, Michel Lafon, 2011 ((en) Night Star, 2010)
-Pour toujours, Michel Lafon, 2012 ((en) Everlasting, 2011)
-Série Radiance
-Cette série a ensuite été rééditée sous le titre La Seconde Vie de Riley Bloom.
+Pour toujours, Michel Lafon, 2012 ((en) Everlasting, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alyson_Noël</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyson_No%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Radiance</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette série a ensuite été rééditée sous le titre La Seconde Vie de Riley Bloom.
 Ici et maintenant, Michel Lafon, 2011 ((en) Radiance, 2010)
 Éclats, Michel Lafon, 2011 ((en) Shimmer, 2010)
 Au cœur des rêves, Michel Lafon, 2012 ((en) Dreamland, 2011)
-Murmure, Michel Lafon, 2013 ((en) Whisper, 2012)
-Série Les Chasseurs d'âmes
-Destinés, Michel Lafon, 2013 ((en) Fated, 2012)
+Murmure, Michel Lafon, 2013 ((en) Whisper, 2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alyson_Noël</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyson_No%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Les Chasseurs d'âmes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Destinés, Michel Lafon, 2013 ((en) Fated, 2012)
 Écho, Michel Lafon, 2013 ((en) Echo, 2012)
 Mystique, Michel Lafon, 2014 ((en) Mystic, 2013)
-Horizon, Michel Lafon, 2014 ((en) Horizon, 2013)
-Série The Beautiful Idols
-Rivalité, Harlequin, coll. « Mosaïc », 2017 ((en) Unrivaled, 2016)
-Blacklist, 2017 ((en) Blacklist, 2017)
-Série Stealing Infinity
-Stealing Infinity, Michel Lafon, 2023 ((en) Stealing Infinity, 2022)
-Romans indépendants
-Menteuse à mi-temps, Michel Lafon, 2015 ((en) Faking 19, 2005)
+Horizon, Michel Lafon, 2014 ((en) Horizon, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alyson_Noël</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyson_No%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série The Beautiful Idols</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rivalité, Harlequin, coll. « Mosaïc », 2017 ((en) Unrivaled, 2016)
+Blacklist, 2017 ((en) Blacklist, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alyson_Noël</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyson_No%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Stealing Infinity</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Stealing Infinity, Michel Lafon, 2023 ((en) Stealing Infinity, 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alyson_Noël</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyson_No%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Menteuse à mi-temps, Michel Lafon, 2015 ((en) Faking 19, 2005)
 Reines du lycée, Fleuve noir, 2006 ((en) Art Geeks and Prom Queens, 2005)
 (en) Laguna Cove, 2006
 Emmène-moi au ciel, Fleuve noir, 2008 ((en) Fly Me to the Moon, 2006)
@@ -608,9 +799,43 @@
 (en) Cruel Summer, 2008
 L'Été où ma vie a changé, Michel Lafon, 2014 ((en) Forever Summer, 2011)Contient les deux romans Rendez-vous manqué (Cruel Summer) et Une fille qui fait des vagues (Laguna Cove)
 Le plus beau des vœux, Michel Lafon, 2017 ((en) Five Days of Famous, 2016)
-L'Étrange Ville de Grimsly, Michel Lafon, 2018 ((en) The Bone Thief, 2017)
-Nouvelles
-Bring Me to Life, Hachette, 2011 ((en) Bring Me to Life, 2010)(en) dans l'anthologie Lilith</t>
+L'Étrange Ville de Grimsly, Michel Lafon, 2018 ((en) The Bone Thief, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alyson_Noël</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alyson_No%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bring Me to Life, Hachette, 2011 ((en) Bring Me to Life, 2010)(en) dans l'anthologie Lilith</t>
         </is>
       </c>
     </row>
